--- a/data/trans_bre/P1403-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1403-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-4.453834431389243</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-8.06082824656974</v>
+        <v>-8.060828246569745</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1078669091826093</v>
@@ -649,7 +649,7 @@
         <v>-0.3357105168706704</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3846517957321624</v>
+        <v>-0.3846517957321627</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.647604134313299</v>
+        <v>-5.469091700541409</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.51508283365438</v>
+        <v>-12.02681711322407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.201672001621974</v>
+        <v>-9.200410832772851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.6319208688535</v>
+        <v>-12.16867239979217</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4349501472649843</v>
+        <v>-0.4331986080530451</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6359710635010075</v>
+        <v>-0.6433533995540366</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.600105949786983</v>
+        <v>-0.5961119990169013</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5279883670370743</v>
+        <v>-0.5187035297486537</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.249046398178816</v>
+        <v>3.440097205904726</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.09446980938371</v>
+        <v>-1.23301250525084</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4177940788790333</v>
+        <v>0.5805034162196511</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.910778114890727</v>
+        <v>-4.378796615489586</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3805816130782319</v>
+        <v>0.3769255276477638</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.07634677020341346</v>
+        <v>-0.07876077650326038</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04659807788116239</v>
+        <v>0.06388273000052584</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2138714500442281</v>
+        <v>-0.2301069981460696</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-6.26991816225926</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-7.670879383349277</v>
+        <v>-7.670879383349269</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5422505486200857</v>
@@ -749,7 +749,7 @@
         <v>-0.4271511218272866</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.358110675624023</v>
+        <v>-0.3581106756240228</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.66308467736288</v>
+        <v>-10.6504436822134</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.332750673638705</v>
+        <v>-7.281876146893415</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-10.7912151562292</v>
+        <v>-10.85286344645021</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-12.47150226602455</v>
+        <v>-12.27851886356843</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7316231685234075</v>
+        <v>-0.7348289263772733</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5078131324821755</v>
+        <v>-0.5061844211646576</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6487663805907253</v>
+        <v>-0.6335770953730382</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5088527316757354</v>
+        <v>-0.5069446157045179</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.263536861195824</v>
+        <v>-2.418632457600667</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.662777319675501</v>
+        <v>1.749385002132904</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.300692882989216</v>
+        <v>-1.287471084979779</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-3.145911004281121</v>
+        <v>-3.447422757189694</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1952904621986313</v>
+        <v>-0.2291707573299772</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1671245026870914</v>
+        <v>0.1892417171703805</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1014738324683838</v>
+        <v>-0.08661996712652859</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.163348527340496</v>
+        <v>-0.178690526862272</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.030383406691229</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.258833489644836</v>
+        <v>3.258833489644839</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.03368627432493111</v>
@@ -849,7 +849,7 @@
         <v>0.2458990450682117</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1561568139784102</v>
+        <v>0.1561568139784104</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.819454311707309</v>
+        <v>-5.961800352179062</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.183372399605123</v>
+        <v>-5.503948097368251</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.060839247925986</v>
+        <v>-3.048589877556348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.086083750409702</v>
+        <v>-2.590658527035535</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4073853226309001</v>
+        <v>-0.4164741133866393</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2307258736785334</v>
+        <v>-0.2367538009886297</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1790679568774784</v>
+        <v>-0.1734182406534291</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.09539409869248229</v>
+        <v>-0.1185872343484357</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.932231906908057</v>
+        <v>6.203485829995122</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.290331031573007</v>
+        <v>7.581569902554401</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.67820936673661</v>
+        <v>12.39449230716838</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.385755561205533</v>
+        <v>9.568755064367167</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5047372485989211</v>
+        <v>0.5472046009963449</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3617140114431798</v>
+        <v>0.3939658646568844</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7979728384301261</v>
+        <v>0.8424487575751505</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5126918160375462</v>
+        <v>0.5036214395167065</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>-0.3944798765183204</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2600658053738198</v>
+        <v>-0.2600658053738199</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.130073714747737</v>
+        <v>-6.41030982438123</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.49688533477746</v>
+        <v>-11.41177360051545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-10.48991313439987</v>
+        <v>-10.30418020159032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.484079034917208</v>
+        <v>-8.46736217453919</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3376370464601686</v>
+        <v>-0.343597695152665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5594910836472944</v>
+        <v>-0.5581193625953739</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5302700384990219</v>
+        <v>-0.5156930736839498</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3749949626288416</v>
+        <v>-0.3668100468447686</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3881789776040308</v>
+        <v>0.6408809084993966</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-5.088738109465224</v>
+        <v>-5.05765434919195</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-4.305755230050226</v>
+        <v>-4.250156580043575</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.833992860128323</v>
+        <v>-2.716180105967215</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02560770291620219</v>
+        <v>0.04422432886369894</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2848207850060722</v>
+        <v>-0.2852554109902755</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2530404240025322</v>
+        <v>-0.2422075025677122</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1453198671006981</v>
+        <v>-0.1373203440907572</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.782586857023275</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.937992466997038</v>
+        <v>8.937992466997043</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2637519338312211</v>
@@ -1049,7 +1049,7 @@
         <v>0.1700278245664356</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4745114658274128</v>
+        <v>0.4745114658274132</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.562490023948263</v>
+        <v>-1.068855368296784</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.342669084695267</v>
+        <v>2.275363820269069</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.184779231035002</v>
+        <v>-1.025825000535044</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.52933434862686</v>
+        <v>4.750256228454713</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1047101479932909</v>
+        <v>-0.08063891668900143</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1057470159581977</v>
+        <v>0.1026810221465955</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.06371753281545553</v>
+        <v>-0.06107684000668589</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2107826524672354</v>
+        <v>0.2104838419310278</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.806536967324479</v>
+        <v>7.525309417570987</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.77722841540441</v>
+        <v>11.7092047481286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.351364377581325</v>
+        <v>6.637203697419341</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.76164422432422</v>
+        <v>12.5078412804104</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8346748812925149</v>
+        <v>0.7868338691609915</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7342933595863036</v>
+        <v>0.7379301696040731</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5264067757859585</v>
+        <v>0.4699232900778787</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.777025984752887</v>
+        <v>0.7787925285586992</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>26.65250387520731</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26.68839052797613</v>
+        <v>26.68839052797612</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>14.72339976170181</v>
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>20.51384300087036</v>
+        <v>20.62372502792119</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>26.71434668154657</v>
+        <v>26.49348955963709</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23.68965219584202</v>
+        <v>23.81732498361854</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23.36566514433874</v>
+        <v>23.46014761789677</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>5.858553916545675</v>
+        <v>5.998066651053082</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>8.232610607351949</v>
+        <v>7.6106481648433</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>8.631298682924113</v>
+        <v>10.50510439026848</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>5.453357263710954</v>
+        <v>6.091370137561146</v>
       </c>
     </row>
     <row r="21">
@@ -1192,26 +1192,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>26.16994667420066</v>
+        <v>26.08084644971093</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>33.058968941217</v>
+        <v>33.19309199337382</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29.87334840759545</v>
+        <v>29.72481049877328</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29.46292495297926</v>
+        <v>29.61463075161788</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>41.86331470411336</v>
+        <v>40.2575788818589</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>84.25677103193469</v>
+        <v>82.04434576408953</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>32.14712383222771</v>
+        <v>35.58672335152003</v>
       </c>
     </row>
     <row r="22">
@@ -1247,7 +1247,7 @@
         <v>0.1673221210198854</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.09731019488174157</v>
+        <v>0.09731019488174159</v>
       </c>
     </row>
     <row r="23">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.278304189422204</v>
+        <v>2.275035112767825</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.084342883740706</v>
+        <v>2.106849726460974</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5640003862146372</v>
+        <v>0.7791285607692221</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03757218778239455</v>
+        <v>0.2074813911153908</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1646093157227557</v>
+        <v>0.1645664098351561</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1163410502009847</v>
+        <v>0.115357252574693</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03586946011259847</v>
+        <v>0.04570722648193198</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.00180809565040093</v>
+        <v>0.01051840489300019</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.805510404535013</v>
+        <v>5.619095194258382</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.921038017662227</v>
+        <v>5.927548711625295</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.30044605573743</v>
+        <v>4.587653999292601</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.467261369421967</v>
+        <v>3.5726966345169</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4689821863734868</v>
+        <v>0.4536534495091708</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3736533331197136</v>
+        <v>0.3716784608861154</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.299548861156491</v>
+        <v>0.3167805550410699</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1904812102187911</v>
+        <v>0.1959197777831706</v>
       </c>
     </row>
     <row r="25">
